--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Procr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03114133276867</v>
+        <v>6.106278333333333</v>
       </c>
       <c r="N2">
-        <v>3.03114133276867</v>
+        <v>18.318835</v>
       </c>
       <c r="O2">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="P2">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="Q2">
-        <v>5.154505758681498</v>
+        <v>1.715176237641111</v>
       </c>
       <c r="R2">
-        <v>5.154505758681498</v>
+        <v>15.43658613877</v>
       </c>
       <c r="S2">
-        <v>0.00141893648290341</v>
+        <v>0.0003376971713172632</v>
       </c>
       <c r="T2">
-        <v>0.00141893648290341</v>
+        <v>0.0003376971713172632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.14728125860288</v>
+        <v>7.227280333333333</v>
       </c>
       <c r="N3">
-        <v>7.14728125860288</v>
+        <v>21.681841</v>
       </c>
       <c r="O3">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="P3">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="Q3">
-        <v>12.15406949458681</v>
+        <v>2.030051500082444</v>
       </c>
       <c r="R3">
-        <v>12.15406949458681</v>
+        <v>18.270463500742</v>
       </c>
       <c r="S3">
-        <v>0.003345782006852204</v>
+        <v>0.0003996922497883005</v>
       </c>
       <c r="T3">
-        <v>0.003345782006852204</v>
+        <v>0.0003996922497883005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.814768669869335</v>
+        <v>1.530011666666667</v>
       </c>
       <c r="N4">
-        <v>0.814768669869335</v>
+        <v>4.590034999999999</v>
       </c>
       <c r="O4">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="P4">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="Q4">
-        <v>1.385527542194373</v>
+        <v>0.4297608970188889</v>
       </c>
       <c r="R4">
-        <v>1.385527542194373</v>
+        <v>3.86784807317</v>
       </c>
       <c r="S4">
-        <v>0.0003814091340136514</v>
+        <v>8.461465129999993E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003814091340136514</v>
+        <v>8.461465129999993E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H5">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I5">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J5">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.607754394849907</v>
+        <v>0.6625496666666666</v>
       </c>
       <c r="N5">
-        <v>0.607754394849907</v>
+        <v>1.987649</v>
       </c>
       <c r="O5">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="P5">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="Q5">
-        <v>1.033496358038978</v>
+        <v>0.1861018090708889</v>
       </c>
       <c r="R5">
-        <v>1.033496358038978</v>
+        <v>1.674916281638</v>
       </c>
       <c r="S5">
-        <v>0.0002845017070549218</v>
+        <v>3.664116440109794E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002845017070549218</v>
+        <v>3.664116440109794E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H6">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I6">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J6">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.77640994271387</v>
+        <v>0.788405</v>
       </c>
       <c r="N6">
-        <v>0.77640994271387</v>
+        <v>2.365215</v>
       </c>
       <c r="O6">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="P6">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="Q6">
-        <v>1.320297894905727</v>
+        <v>0.2214529780366667</v>
       </c>
       <c r="R6">
-        <v>1.320297894905727</v>
+        <v>1.99307680233</v>
       </c>
       <c r="S6">
-        <v>0.0003634526643465272</v>
+        <v>4.360137612774834E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003634526643465272</v>
+        <v>4.360137612774834E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H7">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I7">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J7">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.30076589889578</v>
+        <v>4.981182666666666</v>
       </c>
       <c r="N7">
-        <v>4.30076589889578</v>
+        <v>14.943548</v>
       </c>
       <c r="O7">
-        <v>0.2578687233744378</v>
+        <v>0.2339054773213062</v>
       </c>
       <c r="P7">
-        <v>0.2578687233744378</v>
+        <v>0.2339054773213062</v>
       </c>
       <c r="Q7">
-        <v>7.313523243850388</v>
+        <v>1.399151116086222</v>
       </c>
       <c r="R7">
-        <v>7.313523243850388</v>
+        <v>12.592360044776</v>
       </c>
       <c r="S7">
-        <v>0.00201327254931924</v>
+        <v>0.0002754756996852554</v>
       </c>
       <c r="T7">
-        <v>0.00201327254931924</v>
+        <v>0.0002754756996852554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H8">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J8">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.03114133276867</v>
+        <v>6.106278333333333</v>
       </c>
       <c r="N8">
-        <v>3.03114133276867</v>
+        <v>18.318835</v>
       </c>
       <c r="O8">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="P8">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="Q8">
-        <v>275.0137066706027</v>
+        <v>11.49520126519722</v>
       </c>
       <c r="R8">
-        <v>275.0137066706027</v>
+        <v>103.456811386775</v>
       </c>
       <c r="S8">
-        <v>0.07570599393281761</v>
+        <v>0.002263264185794992</v>
       </c>
       <c r="T8">
-        <v>0.07570599393281761</v>
+        <v>0.002263264185794992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H9">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J9">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.14728125860288</v>
+        <v>7.227280333333333</v>
       </c>
       <c r="N9">
-        <v>7.14728125860288</v>
+        <v>21.681841</v>
       </c>
       <c r="O9">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="P9">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="Q9">
-        <v>648.4687105468332</v>
+        <v>13.60551181857389</v>
       </c>
       <c r="R9">
-        <v>648.4687105468332</v>
+        <v>122.449606367165</v>
       </c>
       <c r="S9">
-        <v>0.1785109871817467</v>
+        <v>0.002678758459116067</v>
       </c>
       <c r="T9">
-        <v>0.1785109871817467</v>
+        <v>0.002678758459116067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H10">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I10">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J10">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.814768669869335</v>
+        <v>1.530011666666667</v>
       </c>
       <c r="N10">
-        <v>0.814768669869335</v>
+        <v>4.590034999999999</v>
       </c>
       <c r="O10">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="P10">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="Q10">
-        <v>73.92349197230362</v>
+        <v>2.880280112752778</v>
       </c>
       <c r="R10">
-        <v>73.92349197230362</v>
+        <v>25.922521014775</v>
       </c>
       <c r="S10">
-        <v>0.02034971821041288</v>
+        <v>0.0005670918389212806</v>
       </c>
       <c r="T10">
-        <v>0.02034971821041288</v>
+        <v>0.0005670918389212806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H11">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I11">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J11">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.607754394849907</v>
+        <v>0.6625496666666666</v>
       </c>
       <c r="N11">
-        <v>0.607754394849907</v>
+        <v>1.987649</v>
       </c>
       <c r="O11">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="P11">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="Q11">
-        <v>55.1412060751236</v>
+        <v>1.247264102742778</v>
       </c>
       <c r="R11">
-        <v>55.1412060751236</v>
+        <v>11.225376924685</v>
       </c>
       <c r="S11">
-        <v>0.01517931547161603</v>
+        <v>0.0002455710090533175</v>
       </c>
       <c r="T11">
-        <v>0.01517931547161603</v>
+        <v>0.0002455710090533175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H12">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I12">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J12">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.77640994271387</v>
+        <v>0.788405</v>
       </c>
       <c r="N12">
-        <v>0.77640994271387</v>
+        <v>2.365215</v>
       </c>
       <c r="O12">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="P12">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="Q12">
-        <v>70.44322675862088</v>
+        <v>1.484189494608333</v>
       </c>
       <c r="R12">
-        <v>70.44322675862088</v>
+        <v>13.357705451475</v>
       </c>
       <c r="S12">
-        <v>0.01939166800869242</v>
+        <v>0.0002922187137558204</v>
       </c>
       <c r="T12">
-        <v>0.01939166800869242</v>
+        <v>0.0002922187137558204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H13">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I13">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J13">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.30076589889578</v>
+        <v>4.981182666666666</v>
       </c>
       <c r="N13">
-        <v>4.30076589889578</v>
+        <v>14.943548</v>
       </c>
       <c r="O13">
-        <v>0.2578687233744378</v>
+        <v>0.2339054773213062</v>
       </c>
       <c r="P13">
-        <v>0.2578687233744378</v>
+        <v>0.2339054773213062</v>
       </c>
       <c r="Q13">
-        <v>390.2060120362331</v>
+        <v>9.377184295624444</v>
       </c>
       <c r="R13">
-        <v>390.2060120362331</v>
+        <v>84.39465866062</v>
       </c>
       <c r="S13">
-        <v>0.1074162242216772</v>
+        <v>0.001846252613613714</v>
       </c>
       <c r="T13">
-        <v>0.1074162242216772</v>
+        <v>0.001846252613613714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H14">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I14">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J14">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.03114133276867</v>
+        <v>6.106278333333333</v>
       </c>
       <c r="N14">
-        <v>3.03114133276867</v>
+        <v>18.318835</v>
       </c>
       <c r="O14">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="P14">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="Q14">
-        <v>179.1017106333108</v>
+        <v>634.037429835885</v>
       </c>
       <c r="R14">
-        <v>179.1017106333108</v>
+        <v>5706.336868522965</v>
       </c>
       <c r="S14">
-        <v>0.04930326267266032</v>
+        <v>0.1248341959653756</v>
       </c>
       <c r="T14">
-        <v>0.04930326267266032</v>
+        <v>0.1248341959653756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H15">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I15">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J15">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.14728125860288</v>
+        <v>7.227280333333333</v>
       </c>
       <c r="N15">
-        <v>7.14728125860288</v>
+        <v>21.681841</v>
       </c>
       <c r="O15">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="P15">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="Q15">
-        <v>422.3129703503245</v>
+        <v>750.4352073562709</v>
       </c>
       <c r="R15">
-        <v>422.3129703503245</v>
+        <v>6753.916866206438</v>
       </c>
       <c r="S15">
-        <v>0.1162546534794566</v>
+        <v>0.1477514911993102</v>
       </c>
       <c r="T15">
-        <v>0.1162546534794566</v>
+        <v>0.1477514911993102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H16">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I16">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J16">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.814768669869335</v>
+        <v>1.530011666666667</v>
       </c>
       <c r="N16">
-        <v>0.814768669869335</v>
+        <v>4.590034999999999</v>
       </c>
       <c r="O16">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="P16">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="Q16">
-        <v>48.14241453094328</v>
+        <v>158.866761683085</v>
       </c>
       <c r="R16">
-        <v>48.14241453094328</v>
+        <v>1429.800855147765</v>
       </c>
       <c r="S16">
-        <v>0.01325268251722515</v>
+        <v>0.0312789175009182</v>
       </c>
       <c r="T16">
-        <v>0.01325268251722515</v>
+        <v>0.0312789175009182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H17">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I17">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J17">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.607754394849907</v>
+        <v>0.6625496666666666</v>
       </c>
       <c r="N17">
-        <v>0.607754394849907</v>
+        <v>1.987649</v>
       </c>
       <c r="O17">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="P17">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="Q17">
-        <v>35.91051680295838</v>
+        <v>68.79497868591899</v>
       </c>
       <c r="R17">
-        <v>35.91051680295838</v>
+        <v>619.1548081732709</v>
       </c>
       <c r="S17">
-        <v>0.009885475891808406</v>
+        <v>0.01354488780407612</v>
       </c>
       <c r="T17">
-        <v>0.009885475891808406</v>
+        <v>0.01354488780407613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H18">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I18">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J18">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.77640994271387</v>
+        <v>0.788405</v>
       </c>
       <c r="N18">
-        <v>0.77640994271387</v>
+        <v>2.365215</v>
       </c>
       <c r="O18">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="P18">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="Q18">
-        <v>45.87590403306919</v>
+        <v>81.863002729665</v>
       </c>
       <c r="R18">
-        <v>45.87590403306919</v>
+        <v>736.767024566985</v>
       </c>
       <c r="S18">
-        <v>0.01262875568798444</v>
+        <v>0.01611782151049703</v>
       </c>
       <c r="T18">
-        <v>0.01262875568798444</v>
+        <v>0.01611782151049703</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H19">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I19">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J19">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.30076589889578</v>
+        <v>4.981182666666666</v>
       </c>
       <c r="N19">
-        <v>4.30076589889578</v>
+        <v>14.943548</v>
       </c>
       <c r="O19">
-        <v>0.2578687233744378</v>
+        <v>0.2339054773213062</v>
       </c>
       <c r="P19">
-        <v>0.2578687233744378</v>
+        <v>0.2339054773213062</v>
       </c>
       <c r="Q19">
-        <v>254.120294952419</v>
+        <v>517.2145917875879</v>
       </c>
       <c r="R19">
-        <v>254.120294952419</v>
+        <v>4654.931326088292</v>
       </c>
       <c r="S19">
-        <v>0.06995443878336019</v>
+        <v>0.1018332115251869</v>
       </c>
       <c r="T19">
-        <v>0.06995443878336019</v>
+        <v>0.1018332115251869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H20">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I20">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J20">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.03114133276867</v>
+        <v>6.106278333333333</v>
       </c>
       <c r="N20">
-        <v>3.03114133276867</v>
+        <v>18.318835</v>
       </c>
       <c r="O20">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="P20">
-        <v>0.1817435694533464</v>
+        <v>0.2867375167293102</v>
       </c>
       <c r="Q20">
-        <v>200.9416414703996</v>
+        <v>389.02632742002</v>
       </c>
       <c r="R20">
-        <v>200.9416414703996</v>
+        <v>3501.23694678018</v>
       </c>
       <c r="S20">
-        <v>0.05531537636496503</v>
+        <v>0.07659451399487797</v>
       </c>
       <c r="T20">
-        <v>0.05531537636496503</v>
+        <v>0.07659451399487799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H21">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I21">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J21">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.14728125860288</v>
+        <v>7.227280333333333</v>
       </c>
       <c r="N21">
-        <v>7.14728125860288</v>
+        <v>21.681841</v>
       </c>
       <c r="O21">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="P21">
-        <v>0.4285423427085801</v>
+        <v>0.3393773264762603</v>
       </c>
       <c r="Q21">
-        <v>473.8104464572959</v>
+        <v>460.444508394492</v>
       </c>
       <c r="R21">
-        <v>473.8104464572959</v>
+        <v>4144.000575550428</v>
       </c>
       <c r="S21">
-        <v>0.1304309200405245</v>
+        <v>0.0906558781663364</v>
       </c>
       <c r="T21">
-        <v>0.1304309200405245</v>
+        <v>0.09065587816633641</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H22">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I22">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J22">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.814768669869335</v>
+        <v>1.530011666666667</v>
       </c>
       <c r="N22">
-        <v>0.814768669869335</v>
+        <v>4.590034999999999</v>
       </c>
       <c r="O22">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="P22">
-        <v>0.04885254433370535</v>
+        <v>0.07184601191072573</v>
       </c>
       <c r="Q22">
-        <v>54.01297266223288</v>
+        <v>97.47587435442</v>
       </c>
       <c r="R22">
-        <v>54.01297266223288</v>
+        <v>877.2828691897799</v>
       </c>
       <c r="S22">
-        <v>0.01486873447205367</v>
+        <v>0.01919180450309639</v>
       </c>
       <c r="T22">
-        <v>0.01486873447205367</v>
+        <v>0.01919180450309639</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H23">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I23">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J23">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.607754394849907</v>
+        <v>0.6625496666666666</v>
       </c>
       <c r="N23">
-        <v>0.607754394849907</v>
+        <v>1.987649</v>
       </c>
       <c r="O23">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="P23">
-        <v>0.03644021869811318</v>
+        <v>0.0311118877586646</v>
       </c>
       <c r="Q23">
-        <v>40.28949900545923</v>
+        <v>42.210533075388</v>
       </c>
       <c r="R23">
-        <v>40.28949900545923</v>
+        <v>379.894797678492</v>
       </c>
       <c r="S23">
-        <v>0.01109092562763382</v>
+        <v>0.008310736416775695</v>
       </c>
       <c r="T23">
-        <v>0.01109092562763382</v>
+        <v>0.008310736416775696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H24">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I24">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J24">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.77640994271387</v>
+        <v>0.788405</v>
       </c>
       <c r="N24">
-        <v>0.77640994271387</v>
+        <v>2.365215</v>
       </c>
       <c r="O24">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="P24">
-        <v>0.04655260143181715</v>
+        <v>0.03702177980373291</v>
       </c>
       <c r="Q24">
-        <v>51.47008047967209</v>
+        <v>50.22868020858</v>
       </c>
       <c r="R24">
-        <v>51.47008047967209</v>
+        <v>452.0581218772201</v>
       </c>
       <c r="S24">
-        <v>0.01416872507079376</v>
+        <v>0.009889411276339096</v>
       </c>
       <c r="T24">
-        <v>0.01416872507079376</v>
+        <v>0.0098894112763391</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>63.709236</v>
+      </c>
+      <c r="H25">
+        <v>191.127708</v>
+      </c>
+      <c r="I25">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J25">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.981182666666666</v>
+      </c>
+      <c r="N25">
+        <v>14.943548</v>
+      </c>
+      <c r="O25">
+        <v>0.2339054773213062</v>
+      </c>
+      <c r="P25">
+        <v>0.2339054773213062</v>
+      </c>
+      <c r="Q25">
+        <v>317.347342069776</v>
+      </c>
+      <c r="R25">
+        <v>2856.126078627984</v>
+      </c>
+      <c r="S25">
+        <v>0.06248180063956746</v>
+      </c>
+      <c r="T25">
+        <v>0.06248180063956747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H26">
+        <v>205.966888</v>
+      </c>
+      <c r="I26">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J26">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.106278333333333</v>
+      </c>
+      <c r="N26">
+        <v>18.318835</v>
+      </c>
+      <c r="O26">
+        <v>0.2867375167293102</v>
+      </c>
+      <c r="P26">
+        <v>0.2867375167293102</v>
+      </c>
+      <c r="Q26">
+        <v>419.2303818594978</v>
+      </c>
+      <c r="R26">
+        <v>3773.07343673548</v>
+      </c>
+      <c r="S26">
+        <v>0.08254132198036648</v>
+      </c>
+      <c r="T26">
+        <v>0.08254132198036648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H27">
+        <v>205.966888</v>
+      </c>
+      <c r="I27">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J27">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.227280333333333</v>
+      </c>
+      <c r="N27">
+        <v>21.681841</v>
+      </c>
+      <c r="O27">
+        <v>0.3393773264762603</v>
+      </c>
+      <c r="P27">
+        <v>0.3393773264762603</v>
+      </c>
+      <c r="Q27">
+        <v>496.1934796534231</v>
+      </c>
+      <c r="R27">
+        <v>4465.741316880808</v>
+      </c>
+      <c r="S27">
+        <v>0.09769441228703196</v>
+      </c>
+      <c r="T27">
+        <v>0.09769441228703196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H28">
+        <v>205.966888</v>
+      </c>
+      <c r="I28">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J28">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.530011666666667</v>
+      </c>
+      <c r="N28">
+        <v>4.590034999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.07184601191072573</v>
+      </c>
+      <c r="P28">
+        <v>0.07184601191072573</v>
+      </c>
+      <c r="Q28">
+        <v>105.0439138623422</v>
+      </c>
+      <c r="R28">
+        <v>945.3952247610799</v>
+      </c>
+      <c r="S28">
+        <v>0.02068185869003959</v>
+      </c>
+      <c r="T28">
+        <v>0.02068185869003959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H29">
+        <v>205.966888</v>
+      </c>
+      <c r="I29">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J29">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.6625496666666666</v>
+      </c>
+      <c r="N29">
+        <v>1.987649</v>
+      </c>
+      <c r="O29">
+        <v>0.0311118877586646</v>
+      </c>
+      <c r="P29">
+        <v>0.0311118877586646</v>
+      </c>
+      <c r="Q29">
+        <v>45.48776432959022</v>
+      </c>
+      <c r="R29">
+        <v>409.389878966312</v>
+      </c>
+      <c r="S29">
+        <v>0.008955983068407648</v>
+      </c>
+      <c r="T29">
+        <v>0.008955983068407648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H30">
+        <v>205.966888</v>
+      </c>
+      <c r="I30">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J30">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.788405</v>
+      </c>
+      <c r="N30">
+        <v>2.365215</v>
+      </c>
+      <c r="O30">
+        <v>0.03702177980373291</v>
+      </c>
+      <c r="P30">
+        <v>0.03702177980373291</v>
+      </c>
+      <c r="Q30">
+        <v>54.12844144454667</v>
+      </c>
+      <c r="R30">
+        <v>487.15597300092</v>
+      </c>
+      <c r="S30">
+        <v>0.01065722644850464</v>
+      </c>
+      <c r="T30">
+        <v>0.01065722644850464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="H25">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="I25">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="J25">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.30076589889578</v>
-      </c>
-      <c r="N25">
-        <v>4.30076589889578</v>
-      </c>
-      <c r="O25">
-        <v>0.2578687233744378</v>
-      </c>
-      <c r="P25">
-        <v>0.2578687233744378</v>
-      </c>
-      <c r="Q25">
-        <v>285.1081043174805</v>
-      </c>
-      <c r="R25">
-        <v>285.1081043174805</v>
-      </c>
-      <c r="S25">
-        <v>0.07848478782008121</v>
-      </c>
-      <c r="T25">
-        <v>0.07848478782008121</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H31">
+        <v>205.966888</v>
+      </c>
+      <c r="I31">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J31">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.981182666666666</v>
+      </c>
+      <c r="N31">
+        <v>14.943548</v>
+      </c>
+      <c r="O31">
+        <v>0.2339054773213062</v>
+      </c>
+      <c r="P31">
+        <v>0.2339054773213062</v>
+      </c>
+      <c r="Q31">
+        <v>341.9862308042916</v>
+      </c>
+      <c r="R31">
+        <v>3077.876077238624</v>
+      </c>
+      <c r="S31">
+        <v>0.06733289573256496</v>
+      </c>
+      <c r="T31">
+        <v>0.06733289573256496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.415529</v>
+      </c>
+      <c r="I32">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J32">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.106278333333333</v>
+      </c>
+      <c r="N32">
+        <v>18.318835</v>
+      </c>
+      <c r="O32">
+        <v>0.2867375167293102</v>
+      </c>
+      <c r="P32">
+        <v>0.2867375167293102</v>
+      </c>
+      <c r="Q32">
+        <v>0.8457785765238889</v>
+      </c>
+      <c r="R32">
+        <v>7.612007188714999</v>
+      </c>
+      <c r="S32">
+        <v>0.0001665234315778937</v>
+      </c>
+      <c r="T32">
+        <v>0.0001665234315778937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.415529</v>
+      </c>
+      <c r="I33">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J33">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>7.227280333333333</v>
+      </c>
+      <c r="N33">
+        <v>21.681841</v>
+      </c>
+      <c r="O33">
+        <v>0.3393773264762603</v>
+      </c>
+      <c r="P33">
+        <v>0.3393773264762603</v>
+      </c>
+      <c r="Q33">
+        <v>1.001048189876556</v>
+      </c>
+      <c r="R33">
+        <v>9.009433708888999</v>
+      </c>
+      <c r="S33">
+        <v>0.0001970941146773946</v>
+      </c>
+      <c r="T33">
+        <v>0.0001970941146773946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.415529</v>
+      </c>
+      <c r="I34">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J34">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.530011666666667</v>
+      </c>
+      <c r="N34">
+        <v>4.590034999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.07184601191072573</v>
+      </c>
+      <c r="P34">
+        <v>0.07184601191072573</v>
+      </c>
+      <c r="Q34">
+        <v>0.2119214059461111</v>
+      </c>
+      <c r="R34">
+        <v>1.907292653515</v>
+      </c>
+      <c r="S34">
+        <v>4.17247264502703E-05</v>
+      </c>
+      <c r="T34">
+        <v>4.17247264502703E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.415529</v>
+      </c>
+      <c r="I35">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J35">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.6625496666666666</v>
+      </c>
+      <c r="N35">
+        <v>1.987649</v>
+      </c>
+      <c r="O35">
+        <v>0.0311118877586646</v>
+      </c>
+      <c r="P35">
+        <v>0.0311118877586646</v>
+      </c>
+      <c r="Q35">
+        <v>0.0917695334801111</v>
+      </c>
+      <c r="R35">
+        <v>0.8259258013209999</v>
+      </c>
+      <c r="S35">
+        <v>1.806829595071788E-05</v>
+      </c>
+      <c r="T35">
+        <v>1.806829595071788E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.415529</v>
+      </c>
+      <c r="I36">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J36">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.788405</v>
+      </c>
+      <c r="N36">
+        <v>2.365215</v>
+      </c>
+      <c r="O36">
+        <v>0.03702177980373291</v>
+      </c>
+      <c r="P36">
+        <v>0.03702177980373291</v>
+      </c>
+      <c r="Q36">
+        <v>0.1092017137483333</v>
+      </c>
+      <c r="R36">
+        <v>0.982815423735</v>
+      </c>
+      <c r="S36">
+        <v>2.150047850856826E-05</v>
+      </c>
+      <c r="T36">
+        <v>2.150047850856826E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.415529</v>
+      </c>
+      <c r="I37">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J37">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.981182666666666</v>
+      </c>
+      <c r="N37">
+        <v>14.943548</v>
+      </c>
+      <c r="O37">
+        <v>0.2339054773213062</v>
+      </c>
+      <c r="P37">
+        <v>0.2339054773213062</v>
+      </c>
+      <c r="Q37">
+        <v>0.6899419507657777</v>
+      </c>
+      <c r="R37">
+        <v>6.209477556892</v>
+      </c>
+      <c r="S37">
+        <v>0.0001358411106879324</v>
+      </c>
+      <c r="T37">
+        <v>0.0001358411106879324</v>
       </c>
     </row>
   </sheetData>
